--- a/Dili_LHS_small_results/Dili_LHS_small_results.xlsx
+++ b/Dili_LHS_small_results/Dili_LHS_small_results.xlsx
@@ -581,7 +581,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>50.66</v>
+        <v>46.65</v>
       </c>
       <c r="E5" t="n">
         <v>17.57</v>
@@ -591,11 +591,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>€ 117.20</t>
+          <t>€ 107.92</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>279.05</v>
+        <v>256.95</v>
       </c>
       <c r="I5" t="n">
         <v>98.09999999999999</v>
@@ -629,7 +629,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>€ 341,339.23</t>
+          <t>€ 341,339.47</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>€ 562,123.17</t>
+          <t>€ 562,123.41</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -649,12 +649,12 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>€ 49,008.46</t>
+          <t>€ 49,008.48</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>€ 98,933.08</t>
+          <t>€ 95,544.80</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>51.89</v>
+        <v>47.89</v>
       </c>
       <c r="E6" t="n">
         <v>17.57</v>
@@ -681,23 +681,23 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>€ 120.02</t>
+          <t>€ 110.75</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>285.75</v>
+        <v>263.68</v>
       </c>
       <c r="I6" t="n">
-        <v>101.91</v>
+        <v>101.92</v>
       </c>
       <c r="J6" t="n">
-        <v>71.91</v>
+        <v>71.92</v>
       </c>
       <c r="K6" t="n">
         <v>202.36</v>
       </c>
       <c r="L6" t="n">
-        <v>20.07</v>
+        <v>20.06</v>
       </c>
       <c r="M6" t="n">
         <v>7</v>
@@ -719,7 +719,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>€ 374,006.26</t>
+          <t>€ 374,013.57</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -729,22 +729,22 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>€ 594,790.20</t>
+          <t>€ 594,797.52</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>€ 7,407.73</t>
+          <t>€ 7,407.79</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>€ 51,856.52</t>
+          <t>€ 51,857.16</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>€ 103,070.09</t>
+          <t>€ 99,687.12</t>
         </is>
       </c>
     </row>
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.66</v>
+        <v>46.65</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>€ 117.20</t>
+          <t>€ 107.92</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>279.05</v>
+        <v>256.95</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>€ 341,339.23</t>
+          <t>€ 341,339.47</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>€ 562,123.17</t>
+          <t>€ 562,123.41</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.89</v>
+        <v>47.89</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>20.07</v>
+        <v>20.06</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>€ 120.02</t>
+          <t>€ 110.75</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>285.75</v>
+        <v>263.68</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>101.91</v>
+        <v>101.92</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>71.91</v>
+        <v>71.92</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>€ 374,006.26</t>
+          <t>€ 374,013.57</t>
         </is>
       </c>
     </row>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>€ 594,790.20</t>
+          <t>€ 594,797.52</t>
         </is>
       </c>
     </row>
